--- a/data/exam.xlsx
+++ b/data/exam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\数据库设计\pj\code\xk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD14DEB-E5BB-4CBE-922E-199F763E0ABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5793064-96EE-4514-B832-6CE923036BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6048" xr2:uid="{7F68E33F-D8C2-45EC-A20A-05B49CE4BC8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>exam_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>section_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,22 +907,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D428CE9-0E16-4EF2-9B57-876BF5CEEE65}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,16 +936,22 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -947,16 +965,22 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2">
+        <v>2019</v>
+      </c>
+      <c r="G2" t="s">
         <v>105</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>2108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -970,16 +994,22 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+      <c r="G3" t="s">
         <v>106</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>2204</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -993,16 +1023,22 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4">
+        <v>2019</v>
+      </c>
+      <c r="G4" t="s">
         <v>107</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>2306</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -1016,16 +1052,22 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5">
+        <v>2019</v>
+      </c>
+      <c r="G5" t="s">
         <v>108</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2406</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1039,16 +1081,22 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+      <c r="G6" t="s">
         <v>109</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>3406</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1062,16 +1110,22 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+      <c r="G7" t="s">
         <v>110</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>4204</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1085,16 +1139,22 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8">
+        <v>2019</v>
+      </c>
+      <c r="G8" t="s">
         <v>111</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>4103</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1108,16 +1168,22 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+      <c r="G9" t="s">
         <v>112</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>5201</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1131,16 +1197,22 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+      <c r="G10" t="s">
         <v>113</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>5306</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1154,16 +1226,22 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11">
+        <v>2019</v>
+      </c>
+      <c r="G11" t="s">
         <v>114</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>5402</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1177,16 +1255,22 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="G12" t="s">
         <v>115</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>6201</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1200,16 +1284,22 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+      <c r="G13" t="s">
         <v>116</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>6204</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1223,16 +1313,22 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+      <c r="G14" t="s">
         <v>117</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>6308</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1246,16 +1342,22 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15">
+        <v>2019</v>
+      </c>
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>6406</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1269,16 +1371,22 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>2019</v>
+      </c>
+      <c r="G16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1292,16 +1400,22 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17">
+        <v>2019</v>
+      </c>
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>127</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -1315,16 +1429,22 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18">
+        <v>2019</v>
+      </c>
+      <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>128</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1338,16 +1458,22 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19">
+        <v>2019</v>
+      </c>
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>2108</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1361,16 +1487,22 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20">
+        <v>2019</v>
+      </c>
+      <c r="G20" t="s">
         <v>108</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2204</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -1384,16 +1516,22 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21">
+        <v>2019</v>
+      </c>
+      <c r="G21" t="s">
         <v>109</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>2306</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1407,16 +1545,22 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22">
+        <v>2019</v>
+      </c>
+      <c r="G22" t="s">
         <v>110</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>129</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1430,16 +1574,22 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23">
+        <v>2019</v>
+      </c>
+      <c r="G23" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>131</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1453,16 +1603,22 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24">
+        <v>2019</v>
+      </c>
+      <c r="G24" t="s">
         <v>112</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>133</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>78</v>
       </c>
@@ -1476,16 +1632,22 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25">
+        <v>2019</v>
+      </c>
+      <c r="G25" t="s">
         <v>113</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>129</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -1499,16 +1661,22 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26">
+        <v>2019</v>
+      </c>
+      <c r="G26" t="s">
         <v>114</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>133</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -1522,16 +1690,22 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27">
+        <v>2019</v>
+      </c>
+      <c r="G27" t="s">
         <v>115</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>2202</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1545,16 +1719,22 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28">
+        <v>2019</v>
+      </c>
+      <c r="G28" t="s">
         <v>116</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>2203</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1568,16 +1748,22 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29">
+        <v>2019</v>
+      </c>
+      <c r="G29" t="s">
         <v>117</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>2204</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1591,16 +1777,22 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30">
+        <v>2019</v>
+      </c>
+      <c r="G30" t="s">
         <v>118</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>2306</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -1614,16 +1806,22 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31">
+        <v>2019</v>
+      </c>
+      <c r="G31" t="s">
         <v>119</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>2203</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -1637,16 +1835,22 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32">
+        <v>2019</v>
+      </c>
+      <c r="G32" t="s">
         <v>105</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>2201</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -1660,16 +1864,22 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33">
+        <v>2019</v>
+      </c>
+      <c r="G33" t="s">
         <v>106</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>2301</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -1683,16 +1893,22 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <v>2019</v>
+      </c>
+      <c r="G34" t="s">
         <v>107</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>2501</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -1706,16 +1922,22 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35">
+        <v>2019</v>
+      </c>
+      <c r="G35" t="s">
         <v>108</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>2301</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1729,16 +1951,22 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36">
+        <v>2019</v>
+      </c>
+      <c r="G36" t="s">
         <v>109</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>2501</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -1752,16 +1980,22 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37">
+        <v>2019</v>
+      </c>
+      <c r="G37" t="s">
         <v>110</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>5402</v>
       </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1775,16 +2009,22 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38">
+        <v>2019</v>
+      </c>
+      <c r="G38" t="s">
         <v>111</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>6201</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -1798,16 +2038,22 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39">
+        <v>2019</v>
+      </c>
+      <c r="G39" t="s">
         <v>112</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>6204</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -1821,16 +2067,22 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40" t="s">
         <v>113</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>6308</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1844,16 +2096,22 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41">
+        <v>2019</v>
+      </c>
+      <c r="G41" t="s">
         <v>114</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>6406</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -1867,16 +2125,22 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42">
+        <v>2019</v>
+      </c>
+      <c r="G42" t="s">
         <v>115</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>2203</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -1890,16 +2154,22 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F43">
+        <v>2019</v>
+      </c>
+      <c r="G43" t="s">
         <v>116</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>2204</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -1913,16 +2183,22 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44">
+        <v>2019</v>
+      </c>
+      <c r="G44" t="s">
         <v>117</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>2306</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>98</v>
       </c>
@@ -1936,16 +2212,22 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45">
+        <v>2019</v>
+      </c>
+      <c r="G45" t="s">
         <v>118</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>2308</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -1959,16 +2241,22 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46" t="s">
         <v>119</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>2303</v>
       </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -1982,16 +2270,22 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47">
+        <v>2019</v>
+      </c>
+      <c r="G47" t="s">
         <v>105</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>6308</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2005,16 +2299,22 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48">
+        <v>2019</v>
+      </c>
+      <c r="G48" t="s">
         <v>106</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>6406</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2028,16 +2328,22 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49">
+        <v>2019</v>
+      </c>
+      <c r="G49" t="s">
         <v>107</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H49" t="s">
         <v>125</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -2051,16 +2357,22 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50">
+        <v>2019</v>
+      </c>
+      <c r="G50" t="s">
         <v>108</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>127</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -2074,12 +2386,18 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51">
+        <v>2019</v>
+      </c>
+      <c r="G51" t="s">
         <v>109</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>128</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>126</v>
       </c>
     </row>
